--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narra\WebDev\Gitpractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayanth reddy\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173E5C8-65DB-42C5-B09B-FFC422CDB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE05DA30-EA1F-4B63-8013-198FEBB054CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Requirement/issue</t>
   </si>
@@ -45,17 +45,6 @@
   </si>
   <si>
     <t>how to do?</t>
-  </si>
-  <si>
-    <t>making an exact copy of a git repository</t>
-  </si>
-  <si>
-    <t>Clone the repository</t>
-  </si>
-  <si>
-    <t>1. Get remote repository link
-2. Open Git bash in the folder where we want to clone
-3. run git command "git clone  http:repolink"</t>
   </si>
   <si>
     <t>Practice times</t>
@@ -442,7 +431,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,22 +454,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
       <c r="E2" s="1">
         <v>50</v>
       </c>

--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narra\WebDev\Gitpractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavir\OneDrive\Desktop\New folder\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173E5C8-65DB-42C5-B09B-FFC422CDB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE85030-B548-495D-90B2-A5CE0F0C7C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,34 +47,66 @@
     <t>how to do?</t>
   </si>
   <si>
-    <t>making an exact copy of a git repository</t>
-  </si>
-  <si>
-    <t>Clone the repository</t>
-  </si>
-  <si>
-    <t>1. Get remote repository link
-2. Open Git bash in the folder where we want to clone
-3. run git command "git clone  http:repolink"</t>
-  </si>
-  <si>
     <t>Practice times</t>
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>make exact copy of the repository</t>
+  </si>
+  <si>
+    <t>Cloning to be done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open the location where to be cloned
+ 2. Open git hub and copy the link code
+ 3.use command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(git clone https://github.com/Narra-Srinivas/Gitpractice.git)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,13 +129,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,13 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA861CEB-41D1-42AE-A5DC-C978A8FB9082}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
@@ -454,36 +492,45 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="1">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narra\WebDev\Gitpractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prudh\Desktop\Project\practice\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173E5C8-65DB-42C5-B09B-FFC422CDB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72666F6C-CE41-46B1-817E-93363516616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Requirement/issue</t>
   </si>
@@ -45,17 +45,6 @@
   </si>
   <si>
     <t>how to do?</t>
-  </si>
-  <si>
-    <t>making an exact copy of a git repository</t>
-  </si>
-  <si>
-    <t>Clone the repository</t>
-  </si>
-  <si>
-    <t>1. Get remote repository link
-2. Open Git bash in the folder where we want to clone
-3. run git command "git clone  http:repolink"</t>
   </si>
   <si>
     <t>Practice times</t>
@@ -442,7 +431,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,25 +454,14 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavir\OneDrive\Desktop\New folder\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE85030-B548-495D-90B2-A5CE0F0C7C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF760E7B-DD2B-47FB-8909-F7F5D28651F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Requirement/issue</t>
   </si>
@@ -74,6 +74,82 @@
       </rPr>
       <t>(git clone https://github.com/Narra-Srinivas/Gitpractice.git)</t>
     </r>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>To create a new branch</t>
+  </si>
+  <si>
+    <t>Branch command to be used</t>
+  </si>
+  <si>
+    <t>git branch 'branch_name'</t>
+  </si>
+  <si>
+    <t>switch/checkout</t>
+  </si>
+  <si>
+    <t>git switch 'branch_name'/ git checkout 'branch_name'</t>
+  </si>
+  <si>
+    <t>To change to other branch</t>
+  </si>
+  <si>
+    <t>To create a new branch and change to it at once</t>
+  </si>
+  <si>
+    <t>1. git switch -c 'branch_name' 
+2.git checkout -b 'branch_name'</t>
+  </si>
+  <si>
+    <t>To list branches that are currently in working mode</t>
+  </si>
+  <si>
+    <t>can be done either using switch -c and checkout -b</t>
+  </si>
+  <si>
+    <t>use branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch </t>
+  </si>
+  <si>
+    <t>To list all the branches</t>
+  </si>
+  <si>
+    <t>use branch -a</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>To rename the branches</t>
+  </si>
+  <si>
+    <t>branch -m</t>
+  </si>
+  <si>
+    <t>git branch -m 'old branch name' 'new branch name'</t>
+  </si>
+  <si>
+    <t>To delete a particular branch</t>
+  </si>
+  <si>
+    <t>branch -d</t>
+  </si>
+  <si>
+    <t>git branch -d 'branch name'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do forceful deletion </t>
+  </si>
+  <si>
+    <t>branch -D</t>
+  </si>
+  <si>
+    <t>git branch -D 'branch name'</t>
   </si>
 </sst>
 </file>
@@ -129,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -140,8 +216,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA861CEB-41D1-42AE-A5DC-C978A8FB9082}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -526,11 +611,98 @@
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="4"/>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavir\OneDrive\Desktop\New folder\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF760E7B-DD2B-47FB-8909-F7F5D28651F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C943AD8-E971-4D03-A8B0-EE3C8F2CC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Requirement/issue</t>
   </si>
@@ -104,9 +104,6 @@
 2.git checkout -b 'branch_name'</t>
   </si>
   <si>
-    <t>To list branches that are currently in working mode</t>
-  </si>
-  <si>
     <t>can be done either using switch -c and checkout -b</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t xml:space="preserve">git branch </t>
   </si>
   <si>
-    <t>To list all the branches</t>
-  </si>
-  <si>
     <t>use branch -a</t>
   </si>
   <si>
@@ -150,6 +144,48 @@
   </si>
   <si>
     <t>git branch -D 'branch name'</t>
+  </si>
+  <si>
+    <t>To list branches that are currently in working  directory</t>
+  </si>
+  <si>
+    <t>To list all the branches (local &amp; remote)</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>To add the work done in the working directory</t>
+  </si>
+  <si>
+    <t>use add</t>
+  </si>
+  <si>
+    <t>git add 'File name'</t>
+  </si>
+  <si>
+    <t>To add all the files</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>To commit the work done</t>
+  </si>
+  <si>
+    <t>commit -m</t>
+  </si>
+  <si>
+    <t>git commit -m 'Message to be given'</t>
+  </si>
+  <si>
+    <t>git commit -m 'Subject' -m 'Description'</t>
   </si>
 </sst>
 </file>
@@ -562,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA861CEB-41D1-42AE-A5DC-C978A8FB9082}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -605,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
@@ -643,7 +679,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>16</v>
@@ -651,60 +687,109 @@
     </row>
     <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayanth reddy\Gitpractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayanth reddy\Desktop\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE05DA30-EA1F-4B63-8013-198FEBB054CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EAE94B-E05C-46BE-AF92-DE644BB3B98B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Requirement/issue</t>
   </si>
@@ -51,6 +51,57 @@
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>creating exact copy of repo</t>
+  </si>
+  <si>
+    <t>clone the repo</t>
+  </si>
+  <si>
+    <t>copy the link from git
+open page where you want copy
+give command  "git clone paste link"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating branch </t>
+  </si>
+  <si>
+    <t>give command "git branch  new branch name "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to list all branch </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>use git branch  -a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to move to new branch  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">use git checkout branch name  </t>
+  </si>
+  <si>
+    <t>to creating new branch and moving at 
+same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use git checkout -b branch name</t>
+  </si>
+  <si>
+    <t>to change  branch name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> use git branch -m  give exsiting name space new name  </t>
+  </si>
+  <si>
+    <t>to delete branch</t>
+  </si>
+  <si>
+    <t>use  git branch -d and branch</t>
   </si>
 </sst>
 </file>
@@ -428,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA861CEB-41D1-42AE-A5DC-C978A8FB9082}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -460,10 +511,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
       <c r="E2" s="1">
         <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Git progress.xlsx
+++ b/Git progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narra\WebDev\Gitpractice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavir\OneDrive\Desktop\New folder\Gitpractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6173E5C8-65DB-42C5-B09B-FFC422CDB4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C943AD8-E971-4D03-A8B0-EE3C8F2CC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C2DC466C-4B68-4FCD-988F-760D626F941A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Requirement/issue</t>
   </si>
@@ -47,34 +47,178 @@
     <t>how to do?</t>
   </si>
   <si>
-    <t>making an exact copy of a git repository</t>
-  </si>
-  <si>
-    <t>Clone the repository</t>
-  </si>
-  <si>
-    <t>1. Get remote repository link
-2. Open Git bash in the folder where we want to clone
-3. run git command "git clone  http:repolink"</t>
-  </si>
-  <si>
     <t>Practice times</t>
   </si>
   <si>
     <t>Required</t>
+  </si>
+  <si>
+    <t>make exact copy of the repository</t>
+  </si>
+  <si>
+    <t>Cloning to be done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Open the location where to be cloned
+ 2. Open git hub and copy the link code
+ 3.use command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(git clone https://github.com/Narra-Srinivas/Gitpractice.git)</t>
+    </r>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>To create a new branch</t>
+  </si>
+  <si>
+    <t>Branch command to be used</t>
+  </si>
+  <si>
+    <t>git branch 'branch_name'</t>
+  </si>
+  <si>
+    <t>switch/checkout</t>
+  </si>
+  <si>
+    <t>git switch 'branch_name'/ git checkout 'branch_name'</t>
+  </si>
+  <si>
+    <t>To change to other branch</t>
+  </si>
+  <si>
+    <t>To create a new branch and change to it at once</t>
+  </si>
+  <si>
+    <t>1. git switch -c 'branch_name' 
+2.git checkout -b 'branch_name'</t>
+  </si>
+  <si>
+    <t>can be done either using switch -c and checkout -b</t>
+  </si>
+  <si>
+    <t>use branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch </t>
+  </si>
+  <si>
+    <t>use branch -a</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>To rename the branches</t>
+  </si>
+  <si>
+    <t>branch -m</t>
+  </si>
+  <si>
+    <t>git branch -m 'old branch name' 'new branch name'</t>
+  </si>
+  <si>
+    <t>To delete a particular branch</t>
+  </si>
+  <si>
+    <t>branch -d</t>
+  </si>
+  <si>
+    <t>git branch -d 'branch name'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do forceful deletion </t>
+  </si>
+  <si>
+    <t>branch -D</t>
+  </si>
+  <si>
+    <t>git branch -D 'branch name'</t>
+  </si>
+  <si>
+    <t>To list branches that are currently in working  directory</t>
+  </si>
+  <si>
+    <t>To list all the branches (local &amp; remote)</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>To add the work done in the working directory</t>
+  </si>
+  <si>
+    <t>use add</t>
+  </si>
+  <si>
+    <t>git add 'File name'</t>
+  </si>
+  <si>
+    <t>To add all the files</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add </t>
+  </si>
+  <si>
+    <t>To commit the work done</t>
+  </si>
+  <si>
+    <t>commit -m</t>
+  </si>
+  <si>
+    <t>git commit -m 'Message to be given'</t>
+  </si>
+  <si>
+    <t>git commit -m 'Subject' -m 'Description'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,12 +241,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,13 +598,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA861CEB-41D1-42AE-A5DC-C978A8FB9082}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C20" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.88671875" style="1" customWidth="1"/>
@@ -454,38 +613,183 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="1">
+        <v>10</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>